--- a/testData/edit_ntp_test_data.xlsx
+++ b/testData/edit_ntp_test_data.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mod_ntp" sheetId="1" r:id="rId1"/>
-    <sheet name="update_ntp" sheetId="2" r:id="rId2"/>
-    <sheet name="check_ntp" sheetId="3" r:id="rId3"/>
+    <sheet name="check_ntp" sheetId="3" r:id="rId2"/>
+    <sheet name="update_ntp" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,14 @@
   </si>
   <si>
     <t>修改服务器IP与周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.181</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -631,89 +639,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="28.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -875,4 +800,87 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="28.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/testData/edit_ntp_test_data.xlsx
+++ b/testData/edit_ntp_test_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,70 +65,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>服务器IP为空，周期为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入服务器Ip 请输入周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器IP填写错误，周期为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP地址输入不正确，请重新输入! 请输入周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器IP填写正确，周期为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器IP填写正确，周期填写错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该选项只能输入数字!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F06_S09_T07_checkout_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入服务器Ip 该选项只能输入数字!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请输入服务器Ip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IP地址输入不正确，请重新输入! 该选项只能输入数字!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP地址输入不正确，请重新输入!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周期时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,30 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手动更新系统时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动更新系统时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器IP为空，周期填写错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器IP为空，周期填写正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器IP填写错误，周期填写错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器IP填写错误，周期填写正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改服务器IP与周期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,7 +89,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.181</t>
+    <t>172.16.20.214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址输入不正确，请重新输入!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器IP填写错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器IP为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新系统时间失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新系统时间成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +516,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -602,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -613,13 +549,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -640,10 +576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -673,10 +609,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -686,113 +622,17 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -807,7 +647,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -832,7 +672,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -840,13 +680,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -860,20 +700,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
